--- a/LU/venue.xlsx
+++ b/LU/venue.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vishnu Kumar\Documents\IPL\LU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20522907-D0CA-4D3B-9C0A-004CA974F3CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DCEE8DE-0731-4701-9251-8CAB0E4649CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{ADDA8DEB-A610-47E8-895A-CE14EED7E9BD}"/>
   </bookViews>
@@ -114,9 +114,6 @@
     <t>Holkar Cricket Stadium</t>
   </si>
   <si>
-    <t>Dr. Y.S. Rajasekhara Reddy ACA-VDCA Cricket St...</t>
-  </si>
-  <si>
     <t>Subrata Roy Sahara Stadium</t>
   </si>
   <si>
@@ -138,9 +135,6 @@
     <t>Dubai International Cricket Stadium</t>
   </si>
   <si>
-    <t>Punjab Cricket Association IS Bindra Stadium, ...</t>
-  </si>
-  <si>
     <t>Saurashtra Cricket Association Stadium</t>
   </si>
   <si>
@@ -316,6 +310,12 @@
   </si>
   <si>
     <t>Venue6</t>
+  </si>
+  <si>
+    <t>Dr. Y.S. Rajasekhara Reddy ACA-VDCA Cricket Stadium</t>
+  </si>
+  <si>
+    <t>Punjab Cricket Association IS Bindra Stadium, Mohali</t>
   </si>
 </sst>
 </file>
@@ -675,8 +675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2604834D-9F32-47C6-BC02-E8010E85EDE9}">
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -687,31 +687,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" t="s">
         <v>86</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>87</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>88</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>89</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>90</v>
-      </c>
-      <c r="H1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -719,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C2" t="str">
         <f>VLOOKUP(B2,Sheet3!A:C,3,FALSE)</f>
@@ -755,7 +755,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C3" t="str">
         <f>VLOOKUP(B3,Sheet3!A:C,3,FALSE)</f>
@@ -791,7 +791,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C4" t="str">
         <f>VLOOKUP(B4,Sheet3!A:C,3,FALSE)</f>
@@ -827,7 +827,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C5" t="str">
         <f>VLOOKUP(B5,Sheet3!A:C,3,FALSE)</f>
@@ -863,7 +863,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C6" t="str">
         <f>VLOOKUP(B6,Sheet3!A:C,3,FALSE)</f>
@@ -899,7 +899,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C7" t="str">
         <f>VLOOKUP(B7,Sheet3!A:C,3,FALSE)</f>
@@ -935,7 +935,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C8" t="str">
         <f>VLOOKUP(B8,Sheet3!A:C,3,FALSE)</f>
@@ -971,7 +971,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C9" t="str">
         <f>VLOOKUP(B9,Sheet3!A:C,3,FALSE)</f>
@@ -1007,7 +1007,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C10" t="str">
         <f>VLOOKUP(B10,Sheet3!A:C,3,FALSE)</f>
@@ -1043,7 +1043,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C11" t="str">
         <f>VLOOKUP(B11,Sheet3!A:C,3,FALSE)</f>
@@ -1079,7 +1079,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C12" t="str">
         <f>VLOOKUP(B12,Sheet3!A:C,3,FALSE)</f>
@@ -1115,7 +1115,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C13" t="str">
         <f>VLOOKUP(B13,Sheet3!A:C,3,FALSE)</f>
@@ -1151,7 +1151,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C14" t="str">
         <f>VLOOKUP(B14,Sheet3!A:C,3,FALSE)</f>
@@ -1187,7 +1187,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C15" t="str">
         <f>VLOOKUP(B15,Sheet3!A:C,3,FALSE)</f>
@@ -1223,7 +1223,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C16" t="str">
         <f>VLOOKUP(B16,Sheet3!A:C,3,FALSE)</f>
@@ -1259,7 +1259,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C17" t="str">
         <f>VLOOKUP(B17,Sheet3!A:C,3,FALSE)</f>
@@ -1295,7 +1295,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C18" t="str">
         <f>VLOOKUP(B18,Sheet3!A:C,3,FALSE)</f>
@@ -1331,7 +1331,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C19" t="str">
         <f>VLOOKUP(B19,Sheet3!A:C,3,FALSE)</f>
@@ -1367,7 +1367,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C20" t="str">
         <f>VLOOKUP(B20,Sheet3!A:C,3,FALSE)</f>
@@ -1403,7 +1403,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C21" t="str">
         <f>VLOOKUP(B21,Sheet3!A:C,3,FALSE)</f>
@@ -1439,7 +1439,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C22" t="str">
         <f>VLOOKUP(B22,Sheet3!A:C,3,FALSE)</f>
@@ -1475,7 +1475,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C23" t="str">
         <f>VLOOKUP(B23,Sheet3!A:C,3,FALSE)</f>
@@ -1511,7 +1511,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C24" t="str">
         <f>VLOOKUP(B24,Sheet3!A:C,3,FALSE)</f>
@@ -1547,7 +1547,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C25" t="str">
         <f>VLOOKUP(B25,Sheet3!A:C,3,FALSE)</f>
@@ -1583,7 +1583,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C26" t="str">
         <f>VLOOKUP(B26,Sheet3!A:C,3,FALSE)</f>
@@ -1616,10 +1616,10 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="B27" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C27" t="str">
         <f>VLOOKUP(B27,Sheet3!A:C,3,FALSE)</f>
@@ -1652,10 +1652,10 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C28" t="str">
         <f>VLOOKUP(B28,Sheet3!A:C,3,FALSE)</f>
@@ -1688,10 +1688,10 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C29" t="str">
         <f>VLOOKUP(B29,Sheet3!A:C,3,FALSE)</f>
@@ -1724,10 +1724,10 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C30" t="str">
         <f>VLOOKUP(B30,Sheet3!A:C,3,FALSE)</f>
@@ -1760,10 +1760,10 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C31" t="str">
         <f>VLOOKUP(B31,Sheet3!A:C,3,FALSE)</f>
@@ -1796,10 +1796,10 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C32" t="str">
         <f>VLOOKUP(B32,Sheet3!A:C,3,FALSE)</f>
@@ -1832,10 +1832,10 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C33" t="str">
         <f>VLOOKUP(B33,Sheet3!A:C,3,FALSE)</f>
@@ -1868,10 +1868,10 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C34" t="str">
         <f>VLOOKUP(B34,Sheet3!A:C,3,FALSE)</f>
@@ -1904,10 +1904,10 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="B35" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C35" t="str">
         <f>VLOOKUP(B35,Sheet3!A:C,3,FALSE)</f>
@@ -1940,10 +1940,10 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C36" t="str">
         <f>VLOOKUP(B36,Sheet3!A:C,3,FALSE)</f>
@@ -1976,10 +1976,10 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B37" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C37" t="str">
         <f>VLOOKUP(B37,Sheet3!A:C,3,FALSE)</f>
@@ -2012,10 +2012,10 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B38" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C38" t="str">
         <f>VLOOKUP(B38,Sheet3!A:C,3,FALSE)</f>
@@ -2048,10 +2048,10 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C39" t="str">
         <f>VLOOKUP(B39,Sheet3!A:C,3,FALSE)</f>
@@ -2084,10 +2084,10 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B40" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C40" t="str">
         <f>VLOOKUP(B40,Sheet3!A:C,3,FALSE)</f>
@@ -2120,10 +2120,10 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B41" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C41" t="str">
         <f>VLOOKUP(B41,Sheet3!A:C,3,FALSE)</f>
@@ -2156,10 +2156,10 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B42" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C42" t="str">
         <f>VLOOKUP(B42,Sheet3!A:C,3,FALSE)</f>
@@ -2192,10 +2192,10 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B43" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C43" t="str">
         <f>VLOOKUP(B43,Sheet3!A:C,3,FALSE)</f>
@@ -2228,10 +2228,10 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B44" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C44" t="str">
         <f>VLOOKUP(B44,Sheet3!A:C,3,FALSE)</f>
@@ -2264,10 +2264,10 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B45" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C45" t="str">
         <f>VLOOKUP(B45,Sheet3!A:C,3,FALSE)</f>
@@ -2300,10 +2300,10 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B46" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C46" t="str">
         <f>VLOOKUP(B46,Sheet3!A:C,3,FALSE)</f>
@@ -2336,10 +2336,10 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B47" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C47" t="str">
         <f>VLOOKUP(B47,Sheet3!A:C,3,FALSE)</f>
@@ -2372,10 +2372,10 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B48" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C48" t="str">
         <f>VLOOKUP(B48,Sheet3!A:C,3,FALSE)</f>
@@ -2408,10 +2408,10 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B49" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C49" t="str">
         <f>VLOOKUP(B49,Sheet3!A:C,3,FALSE)</f>
@@ -2444,10 +2444,10 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
+        <v>46</v>
+      </c>
+      <c r="B50" t="s">
         <v>48</v>
-      </c>
-      <c r="B50" t="s">
-        <v>50</v>
       </c>
       <c r="C50" t="str">
         <f>VLOOKUP(B50,Sheet3!A:C,3,FALSE)</f>
@@ -2481,6 +2481,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2499,18 +2500,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" t="s">
         <v>83</v>
-      </c>
-      <c r="B1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2522,7 +2523,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -2534,7 +2535,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -2546,7 +2547,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -2558,7 +2559,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -2570,7 +2571,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -2582,7 +2583,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -2594,7 +2595,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -2606,7 +2607,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -2618,7 +2619,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -2630,7 +2631,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -2642,7 +2643,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -2654,7 +2655,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -2666,7 +2667,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -2678,7 +2679,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -2690,7 +2691,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -2702,7 +2703,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -2714,7 +2715,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -2726,7 +2727,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -2738,7 +2739,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -2750,7 +2751,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -2762,7 +2763,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -2774,7 +2775,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -2786,7 +2787,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -2798,7 +2799,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B26">
         <v>25</v>
@@ -2810,7 +2811,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B27">
         <v>26</v>
@@ -2822,7 +2823,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B28">
         <v>27</v>
@@ -2834,7 +2835,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B29">
         <v>28</v>
@@ -2846,7 +2847,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B30">
         <v>29</v>
@@ -2858,7 +2859,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B31">
         <v>30</v>
@@ -2870,7 +2871,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B32">
         <v>31</v>
@@ -2882,7 +2883,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B33">
         <v>32</v>
@@ -2894,7 +2895,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B34">
         <v>33</v>
